--- a/data/trans_bre/P26-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P26-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P26-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P26-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,92%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,26%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,62%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,01; 12,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,83; 32,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,04; 9,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,78; 5,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,07; 46,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,09; 124,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,02; 40,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,93; 96,06</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,81</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,29</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,45%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,22; 16,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,34; 14,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,64; 8,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,25; 4,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,55; 66,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,18; 59,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,68; 39,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,65; 76,99</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,86</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,36</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,75%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,53%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,24%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,35; 13,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,9; 11,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,39; 5,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,29; 6,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,14; 51,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,41; 38,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,08; 26,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,02; 74,85</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,19</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,18</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,8%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,43%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,69%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,71; 11,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,0; 13,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,83; 11,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,78; 7,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,9; 42,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,29; 44,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,78; 42,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,18; 77,44</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,14</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,74%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,77%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,47%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,87%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,59; 12,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,28; 4,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,69; 1,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,8; 3,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,32; 50,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,38; 13,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,91; 6,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,71; 25,91</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,45</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,85</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,78%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,2%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,1; 11,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,44; 8,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 3,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,07; 2,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,41; 39,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,35; 26,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 15,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,47; 27,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P26-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P26-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>9,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,57</t>
+          <t>9,98</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>32,49%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>55,92%</t>
+          <t>36,04%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-7,26%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-18,62%</t>
+          <t>4,89%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 12,54</t>
+          <t>4,03; 14,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,83; 32,55</t>
+          <t>4,55; 15,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,04; 9,17</t>
+          <t>-3,51; 6,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 5,96</t>
+          <t>-3,53; 3,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-30,07; 46,23</t>
+          <t>12,66; 57,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,09; 124,09</t>
+          <t>14,4; 59,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-39,02; 40,18</t>
+          <t>-12,18; 29,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-61,93; 96,06</t>
+          <t>-30,89; 57,73</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,81</t>
+          <t>8,86</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,29</t>
+          <t>7,36</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>-14,84</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>40,03%</t>
+          <t>30,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>31,19%</t>
+          <t>22,53%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>-50,87%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,22; 16,34</t>
+          <t>4,35; 13,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 14,41</t>
+          <t>2,9; 11,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 8,38</t>
+          <t>-2,39; 5,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 4,37</t>
+          <t>-51,09; 5,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,55; 66,59</t>
+          <t>14,14; 51,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,18; 59,98</t>
+          <t>8,41; 38,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 39,2</t>
+          <t>-9,08; 26,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,65; 76,99</t>
+          <t>-79,05; 69,67</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,86</t>
+          <t>6,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,36</t>
+          <t>8,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>30,75%</t>
+          <t>20,83%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,53%</t>
+          <t>24,8%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>23,43%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,93%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,35; 13,36</t>
+          <t>0,71; 11,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,9; 11,57</t>
+          <t>3,0; 13,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 5,61</t>
+          <t>1,83; 11,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,29; 6,24</t>
+          <t>-8,5; 6,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,14; 51,42</t>
+          <t>1,9; 42,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,41; 38,31</t>
+          <t>8,29; 44,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 26,17</t>
+          <t>5,78; 42,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-56,02; 74,85</t>
+          <t>-53,95; 60,23</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,19</t>
+          <t>9,14</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,18</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,59</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,83%</t>
+          <t>32,74%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,8%</t>
+          <t>-1,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>23,43%</t>
+          <t>-10,47%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,69%</t>
+          <t>-9,56%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 11,44</t>
+          <t>4,59; 12,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,0; 13,31</t>
+          <t>-5,28; 4,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,83; 11,32</t>
+          <t>-6,69; 1,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 7,57</t>
+          <t>-5,89; 2,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,9; 42,09</t>
+          <t>15,32; 50,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,29; 44,89</t>
+          <t>-13,38; 13,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,78; 42,93</t>
+          <t>-24,91; 6,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,18; 77,44</t>
+          <t>-32,42; 17,24</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,14</t>
+          <t>8,45</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>5,85</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-5,61</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>32,74%</t>
+          <t>29,51%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,77%</t>
+          <t>17,78%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-10,47%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,87%</t>
+          <t>-30,36%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,59; 12,98</t>
+          <t>6,1; 11,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 4,4</t>
+          <t>3,44; 8,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 1,31</t>
+          <t>-0,47; 3,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 3,23</t>
+          <t>-27,68; 1,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,32; 50,02</t>
+          <t>20,41; 39,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,38; 13,26</t>
+          <t>10,35; 26,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-24,91; 6,66</t>
+          <t>-2,04; 15,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-21,71; 25,91</t>
+          <t>-69,92; 17,47</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>8,45</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>5,85</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,52</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,66</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>29,51%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>17,78%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>6,05%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>5,2%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>6,1; 11,01</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>3,44; 8,31</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,47; 3,74</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-5,07; 2,98</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>20,41; 39,68</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>10,35; 26,39</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-2,04; 15,56</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-29,47; 27,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P26-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P26-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,03; 14,58</t>
+          <t>4,06; 14,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,55; 15,04</t>
+          <t>5,27; 15,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 6,57</t>
+          <t>-2,8; 7,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 3,71</t>
+          <t>-3,72; 3,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,66; 57,48</t>
+          <t>13,19; 54,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,4; 59,6</t>
+          <t>17,26; 62,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 29,46</t>
+          <t>-9,93; 32,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-30,89; 57,73</t>
+          <t>-31,73; 58,31</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,35; 13,36</t>
+          <t>4,09; 13,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 11,57</t>
+          <t>3,0; 11,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 5,61</t>
+          <t>-2,43; 5,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-51,09; 5,92</t>
+          <t>-48,83; 6,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,14; 51,42</t>
+          <t>12,82; 50,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,41; 38,31</t>
+          <t>8,63; 38,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 26,17</t>
+          <t>-9,56; 25,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-79,05; 69,67</t>
+          <t>-78,1; 70,11</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 11,44</t>
+          <t>0,79; 11,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,0; 13,31</t>
+          <t>3,2; 13,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,83; 11,32</t>
+          <t>1,68; 11,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 6,4</t>
+          <t>-8,59; 5,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 42,09</t>
+          <t>2,49; 40,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,29; 44,89</t>
+          <t>8,79; 44,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,78; 42,93</t>
+          <t>5,49; 44,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-53,95; 60,23</t>
+          <t>-54,05; 54,57</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,59; 12,98</t>
+          <t>4,48; 13,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 4,4</t>
+          <t>-4,95; 4,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 1,31</t>
+          <t>-6,72; 1,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 2,44</t>
+          <t>-5,76; 2,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,32; 50,02</t>
+          <t>14,87; 51,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,38; 13,26</t>
+          <t>-12,79; 11,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,91; 6,66</t>
+          <t>-24,56; 7,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,42; 17,24</t>
+          <t>-32,49; 18,13</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,1; 11,01</t>
+          <t>6,26; 11,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,44; 8,31</t>
+          <t>3,47; 8,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 3,74</t>
+          <t>-0,79; 3,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-27,68; 1,92</t>
+          <t>-25,19; 1,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,41; 39,68</t>
+          <t>21,02; 40,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,35; 26,39</t>
+          <t>9,83; 25,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 15,56</t>
+          <t>-3,1; 15,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-69,92; 17,47</t>
+          <t>-67,7; 16,58</t>
         </is>
       </c>
     </row>
